--- a/data/요청 모니터링.xlsx
+++ b/data/요청 모니터링.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCode\TA Demo\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCode\ENC Demo\V3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5109203-3130-46DA-960B-147EC8C81E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8BE26A-7120-4CE4-BE4E-986014BF69E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="6030" windowWidth="23010" windowHeight="12210" xr2:uid="{4E8CDBB1-3453-404F-ABB9-3E38F7D2DE1B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4E8CDBB1-3453-404F-ABB9-3E38F7D2DE1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="43">
   <si>
     <t>삼선5구역 주택재개발정비사업</t>
   </si>
@@ -167,6 +167,18 @@
   </si>
   <si>
     <t>선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행대기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,7 +569,7 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B48"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -676,7 +688,7 @@
         <v>114</v>
       </c>
       <c r="J4" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="L4" s="1">
         <v>45758.745694444442</v>
@@ -701,11 +713,17 @@
       <c r="G5">
         <v>79</v>
       </c>
+      <c r="H5" s="1">
+        <v>45765.389884259261</v>
+      </c>
+      <c r="I5" s="1">
+        <v>45765.390879629631</v>
+      </c>
       <c r="J5" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="L5" s="1">
-        <v>45758.745694444442</v>
+        <v>45758.606458333335</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -727,11 +745,17 @@
       <c r="G6">
         <v>76</v>
       </c>
+      <c r="H6" s="1">
+        <v>45764.860937500001</v>
+      </c>
+      <c r="I6" s="1">
+        <v>45764.863877314812</v>
+      </c>
       <c r="J6" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="L6" s="1">
-        <v>45758.745694444442</v>
+        <v>45758.696886574071</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -754,10 +778,10 @@
         <v>155</v>
       </c>
       <c r="J7" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="L7" s="1">
-        <v>45758.745694444442</v>
+        <v>45758.744120370371</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
